--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Ceguera.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Ceguera.xlsx
@@ -521,7 +521,7 @@
         <v>18.88479756270177</v>
       </c>
       <c r="B8" t="n">
-        <v>19.97586711666352</v>
+        <v>19.97586711666353</v>
       </c>
       <c r="C8" t="n">
         <v>18.45772330539699</v>
@@ -664,7 +664,7 @@
         <v>38.61248905926376</v>
       </c>
       <c r="B21" t="n">
-        <v>21.60205232301909</v>
+        <v>21.60205232301908</v>
       </c>
       <c r="C21" t="n">
         <v>54.13295113320585</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>44.60834129577307</v>
+        <v>44.60834129577308</v>
       </c>
       <c r="B29" t="n">
         <v>24.32939879899047</v>
@@ -884,7 +884,7 @@
         <v>24.50308133012426</v>
       </c>
       <c r="B41" t="n">
-        <v>15.88128668638836</v>
+        <v>15.88128668638837</v>
       </c>
       <c r="C41" t="n">
         <v>32.52407912080033</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>35.51809424984641</v>
+        <v>35.51809424984642</v>
       </c>
       <c r="B43" t="n">
         <v>23.13345542125397</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>30.20286593346277</v>
+        <v>30.20286593346278</v>
       </c>
       <c r="B51" t="n">
         <v>11.93410257522826</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>36.46616857034545</v>
+        <v>36.46616857034544</v>
       </c>
       <c r="B63" t="n">
         <v>30.98715656130591</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>36.26591038948939</v>
+        <v>36.2659103894894</v>
       </c>
       <c r="B68" t="n">
-        <v>19.63443383180209</v>
+        <v>19.63443383180208</v>
       </c>
       <c r="C68" t="n">
         <v>51.41149477710596</v>
